--- a/Tecnologia da Informação/Planilha de Pontuação.xlsx
+++ b/Tecnologia da Informação/Planilha de Pontuação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Faculdade\1º semestre\Projeto e inovação\GitHub\Projeto frigologia\Grupo08ADSB\Tecnologia da Informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dr Davod\Desktop\Grupo08ADSB\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C156865-08DF-4D33-A019-279C9963F33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F3BEE-740D-444A-BA7A-C06FA2807481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17400" yWindow="435" windowWidth="17520" windowHeight="12750" xr2:uid="{97176FFF-1B23-4071-9513-7D0CCFB2BF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11280" xr2:uid="{97176FFF-1B23-4071-9513-7D0CCFB2BF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SEMANA</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Ajustes no site institucional, Atulizar o Backlog, HDL e LLD</t>
+  </si>
+  <si>
+    <t>Ajustes no site institucional, atualização banco de dados FK</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,10 +163,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +496,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +514,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
@@ -523,99 +532,104 @@
       <c r="A2" s="4">
         <v>44106</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1">
         <v>69</v>
       </c>
       <c r="H2" s="7">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44107</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="10">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44108</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44136</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44137</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44138</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44139</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44166</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44167</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
